--- a/va_facility_data_2025-02-20/Dubuque VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dubuque%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dubuque VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dubuque%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R83e343a0138645caa2471005bda385bd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9b48560102154176b5552247b7f7ea48"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R850a9ef9bbc34a4088858d9835577a95"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re5df1b8b8f7b4495b834f6aef1a0ac84"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2c43eebe625549af945266e83fca42e2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0ec64394f8514c7687ac9512704bb470"/>
   </x:sheets>
 </x:workbook>
 </file>
